--- a/data/trans_dic/P19C07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04914041668241385</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.03482177373368603</v>
+        <v>0.03482177373368604</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03533646625156023</v>
@@ -697,7 +697,7 @@
         <v>0.03820856074164747</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03763720429211041</v>
+        <v>0.0376372042921104</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02039733605053755</v>
+        <v>0.02021786539783805</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02316790083151626</v>
+        <v>0.02190154022107039</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01492318640126761</v>
+        <v>0.01564752230931263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02570731725270442</v>
+        <v>0.02554649066280472</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02398412362730865</v>
+        <v>0.02426027558139207</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02255490679678877</v>
+        <v>0.02358139792794485</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03331982341205269</v>
+        <v>0.03329999362896825</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02384706671753434</v>
+        <v>0.02312978617552822</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02477704589999334</v>
+        <v>0.02452107161367901</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02598297848979784</v>
+        <v>0.02547995020860448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02678438151923397</v>
+        <v>0.02848721185940565</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02723596336901054</v>
+        <v>0.02698868592478217</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05357289770810514</v>
+        <v>0.05148769292389598</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05152543346182539</v>
+        <v>0.05309608921979642</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0431221729588674</v>
+        <v>0.04628448422260829</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06651018104722137</v>
+        <v>0.06662220577561258</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05432331305802217</v>
+        <v>0.05547187261305841</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05252949642298459</v>
+        <v>0.05219969208485707</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07076428020308557</v>
+        <v>0.06988322400341998</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05218948007641829</v>
+        <v>0.05287308039838299</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04747344779492579</v>
+        <v>0.04744801828118962</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04722405817507913</v>
+        <v>0.04620048102014081</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05064287068418792</v>
+        <v>0.05160552185786305</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05157531351433923</v>
+        <v>0.05177300519468934</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.03280367427840496</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03463052928898792</v>
+        <v>0.03463052928898791</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03340665816026255</v>
@@ -833,7 +833,7 @@
         <v>0.03451435252448616</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02949157357422911</v>
+        <v>0.02949157357422909</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02566393440030867</v>
+        <v>0.02664068537175399</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01762780710938096</v>
+        <v>0.01811425967488717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02398767665888977</v>
+        <v>0.02405422825529113</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01554409721446819</v>
+        <v>0.01453277456523757</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01796536978224627</v>
+        <v>0.01895353067090482</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03126267537098132</v>
+        <v>0.03204064878602732</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02249178649068811</v>
+        <v>0.02282872718466371</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02433437788831536</v>
+        <v>0.02443697322689493</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02461106977752418</v>
+        <v>0.02461995351524915</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0283737231661658</v>
+        <v>0.02830863671862684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02564846429672214</v>
+        <v>0.0258684332114916</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02271943271940992</v>
+        <v>0.02229062442371795</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05704579377367737</v>
+        <v>0.05686443305279766</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04360391109354406</v>
+        <v>0.04369882983131344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05221954083647114</v>
+        <v>0.05287806250582171</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03804584430860242</v>
+        <v>0.0361582114498816</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04176928063314978</v>
+        <v>0.04124144610804864</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06054382947949154</v>
+        <v>0.06123177903103454</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04679848354231304</v>
+        <v>0.04659956383876976</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04826294041955257</v>
+        <v>0.0479940179701154</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04473990534165967</v>
+        <v>0.04422121047231292</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04709054493092754</v>
+        <v>0.04801985180121441</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04393942632935275</v>
+        <v>0.04447533703246523</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03907209120832517</v>
+        <v>0.03788130340616017</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03116506542158048</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0573298812648274</v>
+        <v>0.05732988126482739</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02037163109078453</v>
+        <v>0.01853772132942721</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02267438401076543</v>
+        <v>0.0229381714997859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01253619413382008</v>
+        <v>0.01114861743005429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03911482456583141</v>
+        <v>0.03840819132990594</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02047771186829786</v>
+        <v>0.02185956133494085</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01161156339298386</v>
+        <v>0.01195692310888683</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02425750016780234</v>
+        <v>0.02514308607783175</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0430808492524535</v>
+        <v>0.04380114190268825</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0241650857964492</v>
+        <v>0.02357791550212321</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02021488310414205</v>
+        <v>0.01948824727817477</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02229852012422677</v>
+        <v>0.02213214886339467</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04595989421304</v>
+        <v>0.04581117981735616</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05272961487486123</v>
+        <v>0.05056100100893081</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05638642721996347</v>
+        <v>0.05424300268097144</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03704624537841639</v>
+        <v>0.03702809637138718</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07879229589772427</v>
+        <v>0.07916309100694997</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05204476522019017</v>
+        <v>0.05298207393070193</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03690886700519731</v>
+        <v>0.03518967330836471</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05916570187406292</v>
+        <v>0.05832183955026285</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07438226535810329</v>
+        <v>0.07580683509969038</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0455978469969348</v>
+        <v>0.04656933780894888</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04084729701052171</v>
+        <v>0.03906369154889917</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04236381603365003</v>
+        <v>0.04267850419294355</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07142703029298617</v>
+        <v>0.07233845964858536</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.02709017136256448</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03343915775567241</v>
+        <v>0.0334391577556724</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01999902119604423</v>
+        <v>0.02085703738283807</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02408610239376403</v>
+        <v>0.02357303992202859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01652883741700422</v>
+        <v>0.01582763856118646</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01455000548384683</v>
+        <v>0.01505441247392792</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02738902869952036</v>
+        <v>0.02794657814758374</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02677600907343968</v>
+        <v>0.02642920950347438</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01806227168211767</v>
+        <v>0.01832765611152611</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03027497782853978</v>
+        <v>0.02994735245773636</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.028714747037923</v>
+        <v>0.02753594666061869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02946501369848339</v>
+        <v>0.02738283535196695</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0196274117617508</v>
+        <v>0.01936345019960418</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0258632587336577</v>
+        <v>0.02555053311466813</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04539281109647981</v>
+        <v>0.04822944552815966</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05050578757232893</v>
+        <v>0.0496608853445196</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03948578350511191</v>
+        <v>0.03919723939228165</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03740472159070933</v>
+        <v>0.03740377347340075</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05707767414581071</v>
+        <v>0.05542064859260022</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05326901573850116</v>
+        <v>0.05227384393148438</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04174845865229695</v>
+        <v>0.04070317721780238</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05666664795361323</v>
+        <v>0.05635811141376501</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0480557454534031</v>
+        <v>0.04585013565380135</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04790602568396088</v>
+        <v>0.04640505941387518</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03622051216853864</v>
+        <v>0.03558605063065316</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04352602899474196</v>
+        <v>0.04396410555076104</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.03233044490673399</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.03843387045243834</v>
+        <v>0.03843387045243835</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02742923039110737</v>
+        <v>0.02794781488571579</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02741024511457341</v>
+        <v>0.0271982512939499</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0222116278253261</v>
+        <v>0.0223282750856003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02788110127338435</v>
+        <v>0.02809504227481209</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02756520095078297</v>
+        <v>0.02832608797436155</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02969286582727178</v>
+        <v>0.02973447382600873</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02956883261323375</v>
+        <v>0.02884728732455767</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03628628425703694</v>
+        <v>0.03545531454316778</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02973329122487542</v>
+        <v>0.02964120030179159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02992560407206877</v>
+        <v>0.03029611492634642</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02795793355720924</v>
+        <v>0.02784195026769296</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0341340879324009</v>
+        <v>0.03365402572286653</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04232869421713061</v>
+        <v>0.04346974825348331</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0419736786117124</v>
+        <v>0.04084683314317323</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03529083119505452</v>
+        <v>0.03585111023644691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04336332814405161</v>
+        <v>0.04363801519165089</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04162041053303379</v>
+        <v>0.04249731685918948</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04340977623234475</v>
+        <v>0.04275910362342579</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04314815243822613</v>
+        <v>0.04304862537628566</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04936353356664729</v>
+        <v>0.04873128466736911</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03967023052524257</v>
+        <v>0.03932184875387561</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03975455504274893</v>
+        <v>0.0397417678708707</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03761863892157622</v>
+        <v>0.03786602687634472</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04407063132243794</v>
+        <v>0.04380254174236595</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9747</v>
+        <v>9661</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14039</v>
+        <v>13271</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7835</v>
+        <v>8215</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16955</v>
+        <v>16849</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12906</v>
+        <v>13055</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14340</v>
+        <v>14993</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18138</v>
+        <v>18127</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16840</v>
+        <v>16333</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>25172</v>
+        <v>24912</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>32264</v>
+        <v>31640</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>28642</v>
+        <v>30463</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>37196</v>
+        <v>36858</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25599</v>
+        <v>24603</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>31222</v>
+        <v>32174</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22639</v>
+        <v>24299</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>43866</v>
+        <v>43939</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>29232</v>
+        <v>29850</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33398</v>
+        <v>33189</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>38521</v>
+        <v>38042</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>36854</v>
+        <v>37336</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>48230</v>
+        <v>48204</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>58641</v>
+        <v>57370</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>54155</v>
+        <v>55185</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>70435</v>
+        <v>70705</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18533</v>
+        <v>19238</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>15283</v>
+        <v>15705</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19582</v>
+        <v>19637</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15796</v>
+        <v>14768</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>14448</v>
+        <v>15243</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>28100</v>
+        <v>28799</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19486</v>
+        <v>19778</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25497</v>
+        <v>25605</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>37565</v>
+        <v>37579</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>50103</v>
+        <v>49988</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>43159</v>
+        <v>43529</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>46892</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41194</v>
+        <v>41063</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37805</v>
+        <v>37887</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42629</v>
+        <v>43167</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>38661</v>
+        <v>36743</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>33592</v>
+        <v>33167</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>54418</v>
+        <v>55037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>40545</v>
+        <v>40373</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50569</v>
+        <v>50287</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>68289</v>
+        <v>67497</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>83153</v>
+        <v>84794</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>73938</v>
+        <v>74839</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>80643</v>
+        <v>78186</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11104</v>
+        <v>10105</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14422</v>
+        <v>14589</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6899</v>
+        <v>6136</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30275</v>
+        <v>29728</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11971</v>
+        <v>12779</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7878</v>
+        <v>8113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14063</v>
+        <v>14576</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>34264</v>
+        <v>34837</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27299</v>
+        <v>26636</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>26573</v>
+        <v>25618</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25200</v>
+        <v>25011</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>72127</v>
+        <v>71894</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28742</v>
+        <v>27560</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35864</v>
+        <v>34500</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20389</v>
+        <v>20379</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60986</v>
+        <v>61273</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30426</v>
+        <v>30974</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25043</v>
+        <v>23876</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34301</v>
+        <v>33811</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>59160</v>
+        <v>60293</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>51512</v>
+        <v>52609</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>53695</v>
+        <v>51350</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>47875</v>
+        <v>48231</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>112094</v>
+        <v>113525</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14193</v>
+        <v>14802</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19406</v>
+        <v>18992</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12771</v>
+        <v>12229</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13793</v>
+        <v>14271</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>22295</v>
+        <v>22748</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>24987</v>
+        <v>24664</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15838</v>
+        <v>16070</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32581</v>
+        <v>32228</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>43752</v>
+        <v>41956</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>51236</v>
+        <v>47615</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>32375</v>
+        <v>31940</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>52351</v>
+        <v>51718</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32215</v>
+        <v>34228</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40691</v>
+        <v>40011</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30508</v>
+        <v>30285</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35458</v>
+        <v>35457</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>46461</v>
+        <v>45112</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>49711</v>
+        <v>48782</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>36607</v>
+        <v>35690</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>60983</v>
+        <v>60651</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>73222</v>
+        <v>69861</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>83303</v>
+        <v>80693</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>59745</v>
+        <v>58698</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>88102</v>
+        <v>88989</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>67332</v>
+        <v>68605</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>79892</v>
+        <v>79274</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>59179</v>
+        <v>59490</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>94731</v>
+        <v>95458</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>75554</v>
+        <v>77640</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>93423</v>
+        <v>93554</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>84783</v>
+        <v>82714</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>131554</v>
+        <v>128541</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>154485</v>
+        <v>154006</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>181378</v>
+        <v>183624</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>154653</v>
+        <v>154012</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>239728</v>
+        <v>236356</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>103906</v>
+        <v>106707</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>122339</v>
+        <v>119055</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>94027</v>
+        <v>95519</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>147335</v>
+        <v>148268</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>114079</v>
+        <v>116482</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>136581</v>
+        <v>134534</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>123719</v>
+        <v>123434</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>178965</v>
+        <v>176673</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>206114</v>
+        <v>204304</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>240952</v>
+        <v>240874</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>208093</v>
+        <v>209462</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>309514</v>
+        <v>307631</v>
       </c>
     </row>
     <row r="24">
